--- a/Assignment 1 answer.xlsx
+++ b/Assignment 1 answer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sliit\Y3S1\IT3040 - IT Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5121E160-4AFB-440D-8F47-69E29A60ADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341D0D49-ABE7-4D0C-8335-04F4243AFAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="23256" windowHeight="12456" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Test cases" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="526">
   <si>
     <t>TC ID</t>
   </si>
@@ -5447,12 +5447,6 @@
     </r>
   </si>
   <si>
-    <t>Pos_UI_0004</t>
-  </si>
-  <si>
-    <t>kattiyama match eka balanda avoth maath yanavaa.</t>
-  </si>
-  <si>
     <t>කට්ටියම match එක බලන්ඩ අවොත් මාත් යනවා.</t>
   </si>
   <si>
@@ -8098,6 +8092,15 @@
   </si>
   <si>
     <t>ඇයි ඔයා දුවන්නේ?</t>
+  </si>
+  <si>
+    <t>kattiyamamatch eka balanda avoth maath yanavaa.</t>
+  </si>
+  <si>
+    <t>කට්ටියමමට්ච් එක බලන්ඩ අවොත් මාත් යනවා.</t>
+  </si>
+  <si>
+    <t>Neg_Fun_0004</t>
   </si>
 </sst>
 </file>
@@ -8441,6 +8444,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -8458,36 +8491,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8771,8 +8774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138:D141"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8791,58 +8794,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:13" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:13" s="20" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -8874,25 +8877,25 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="21" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -8903,13 +8906,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="29"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="2" t="s">
         <v>252</v>
       </c>
@@ -8918,13 +8921,13 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="29"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="2" t="s">
         <v>253</v>
       </c>
@@ -8933,38 +8936,38 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="29"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="3"/>
       <c r="I9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="21" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -8975,13 +8978,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="29"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="2" t="s">
         <v>260</v>
       </c>
@@ -8990,13 +8993,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="29"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="2" t="s">
         <v>261</v>
       </c>
@@ -9005,38 +9008,38 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="29"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="3"/>
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
-        <v>518</v>
-      </c>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="E14" s="32" t="s">
-        <v>517</v>
-      </c>
-      <c r="F14" s="34" t="s">
+      <c r="E14" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="21" t="s">
         <v>266</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -9047,13 +9050,13 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="29"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="2" t="s">
         <v>268</v>
       </c>
@@ -9062,13 +9065,13 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="29"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="2" t="s">
         <v>269</v>
       </c>
@@ -9077,39 +9080,39 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="29"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="3"/>
       <c r="I17" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>11</v>
+      <c r="F18" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>266</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>274</v>
@@ -9119,28 +9122,28 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="29"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="29"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="2" t="s">
         <v>275</v>
       </c>
@@ -9149,2364 +9152,2213 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="29"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="3"/>
       <c r="I21" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="C22" s="24" t="s">
+      <c r="A22" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="25"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="25"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="35"/>
       <c r="H24" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="26"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="3"/>
       <c r="I25" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="B26" s="24" t="s">
+      <c r="I26" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="32"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="I27" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="32"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="26"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="3"/>
       <c r="I29" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="C30" s="24" t="s">
+      <c r="A30" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="25"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="35"/>
       <c r="H31" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="25"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="35"/>
       <c r="H32" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="26"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="36"/>
       <c r="H33" s="3"/>
       <c r="I33" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="C34" s="24" t="s">
+      <c r="A34" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="C34" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="G34" s="24" t="s">
+      <c r="D34" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="G34" s="34" t="s">
         <v>266</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="25"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="35"/>
       <c r="H35" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>310</v>
-      </c>
     </row>
     <row r="36" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="25"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="35"/>
       <c r="H36" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="26"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="36"/>
       <c r="H37" s="3"/>
       <c r="I37" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="B38" s="24" t="s">
+      <c r="A38" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="25"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="35"/>
       <c r="H39" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>320</v>
-      </c>
     </row>
     <row r="40" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="25"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="26"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="36"/>
       <c r="H41" s="3"/>
       <c r="I41" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="B42" s="24" t="s">
+      <c r="A42" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="C42" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="G42" s="24" t="s">
+      <c r="E42" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="G42" s="34" t="s">
         <v>11</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="22"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="25"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="35"/>
       <c r="H43" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="25"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="35"/>
       <c r="H44" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="26"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="36"/>
       <c r="H45" s="3"/>
       <c r="I45" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="B46" s="24" t="s">
+      <c r="A46" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="E46" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="C46" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="G46" s="24" t="s">
+      <c r="F46" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="G46" s="34" t="s">
         <v>11</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>274</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="25"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="35"/>
       <c r="H47" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="25"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="35"/>
       <c r="H48" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="26"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="36"/>
       <c r="H49" s="3"/>
       <c r="I49" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="B50" s="34" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="B50" s="24" t="s">
+      <c r="C50" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="G50" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C50" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="E50" s="21" t="s">
+      <c r="I50" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="32"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="G50" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="25"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="35"/>
       <c r="H52" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="26"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="36"/>
       <c r="H53" s="3"/>
       <c r="I53" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="C54" s="24" t="s">
+      <c r="A54" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="C54" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="G54" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="I54" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="32"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="25"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="35"/>
       <c r="H56" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="26"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="36"/>
       <c r="H57" s="3"/>
       <c r="I57" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="B58" s="24" t="s">
+      <c r="A58" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="E58" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="C58" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="21" t="s">
+      <c r="F58" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="G58" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="32"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="G58" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="22"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="25"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="35"/>
       <c r="H60" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="26"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="36"/>
       <c r="H61" s="3"/>
       <c r="I61" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="B62" s="24" t="s">
+      <c r="A62" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="G62" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="32"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C62" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="G62" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" s="2" t="s">
+      <c r="I63" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="32"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="22"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="26"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="36"/>
       <c r="H65" s="3"/>
       <c r="I65" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="B66" s="24" t="s">
+      <c r="A66" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="G66" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C66" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="E66" s="21" t="s">
+      <c r="I66" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="32"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="32"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="G66" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="26"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="36"/>
       <c r="H69" s="3"/>
       <c r="I69" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="B70" s="24" t="s">
+      <c r="A70" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C70" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="E70" s="21" t="s">
+      <c r="I70" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="32"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F70" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="G70" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="2" t="s">
+      <c r="I71" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="32"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="22"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="22"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="26"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="36"/>
       <c r="H73" s="3"/>
       <c r="I73" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="B74" s="24" t="s">
+      <c r="A74" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="G74" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="32"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C74" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="F74" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="G74" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="I74" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="22"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>379</v>
-      </c>
     </row>
     <row r="76" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="22"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="25"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="35"/>
       <c r="H76" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="23"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="26"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="36"/>
       <c r="H77" s="3"/>
       <c r="I77" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="B78" s="24" t="s">
+      <c r="A78" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="E78" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="C78" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="21" t="s">
+      <c r="F78" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="E78" s="21" t="s">
+      <c r="G78" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="32"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F78" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="G78" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="H78" s="2" t="s">
+      <c r="I79" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="32"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="22"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="22"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="23"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="26"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="36"/>
       <c r="H81" s="3"/>
       <c r="I81" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="B82" s="24" t="s">
+      <c r="A82" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="F82" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="G82" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="32"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C82" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="F82" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="G82" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="H82" s="2" t="s">
+      <c r="I83" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="32"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="22"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="22"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="23"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="26"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="36"/>
       <c r="H85" s="3"/>
       <c r="I85" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="B86" s="24" t="s">
+      <c r="A86" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="B86" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="F86" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="G86" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="32"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C86" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="F86" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="G86" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H86" s="2" t="s">
+      <c r="I87" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="32"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I86" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="22"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="22"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="2" t="s">
-        <v>402</v>
-      </c>
       <c r="I88" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="23"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="26"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="36"/>
       <c r="H89" s="3"/>
       <c r="I89" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="B90" s="24" t="s">
+      <c r="A90" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="C90" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="F90" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="G90" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="32"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C90" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="E90" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="F90" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="G90" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="H90" s="2" t="s">
+      <c r="I91" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="32"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="22"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="22"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="23"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="26"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="36"/>
       <c r="H93" s="3"/>
       <c r="I93" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="C94" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="E94" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="F94" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="G94" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B94" s="24" t="s">
+      <c r="I94" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="32"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C94" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="F94" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="G94" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" s="2" t="s">
+      <c r="I95" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="32"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="22"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="22"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="23"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="26"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="36"/>
       <c r="H97" s="3"/>
       <c r="I97" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="21" t="s">
+      <c r="A98" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="B98" s="34" t="s">
         <v>435</v>
       </c>
-      <c r="B98" s="24" t="s">
+      <c r="C98" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="E98" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="F98" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="G98" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="32"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C98" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="E98" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="F98" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="G98" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98" s="2" t="s">
+      <c r="I99" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="32"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="22"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="22"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="23"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="26"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="36"/>
       <c r="H101" s="3"/>
       <c r="I101" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="21" t="s">
+      <c r="A102" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="C102" s="34" t="s">
         <v>443</v>
       </c>
-      <c r="B102" s="24" t="s">
+      <c r="D102" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="E102" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="F102" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="G102" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C102" s="24" t="s">
+      <c r="I102" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="32"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D102" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="E102" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="F102" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="G102" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H102" s="2" t="s">
+      <c r="I103" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="32"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="I102" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="22"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="2" t="s">
+      <c r="I104" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="I103" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="22"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>449</v>
-      </c>
     </row>
     <row r="105" spans="1:9" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="23"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="26"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="36"/>
       <c r="H105" s="3"/>
       <c r="I105" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="21" t="s">
+      <c r="A106" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="B106" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="C106" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="E106" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="F106" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="G106" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B106" s="24" t="s">
+      <c r="I106" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="32"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="35"/>
+      <c r="H107" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C106" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="E106" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="F106" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="G106" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H106" s="2" t="s">
+      <c r="I107" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="32"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="35"/>
+      <c r="H108" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="22"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="22"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="2" t="s">
-        <v>523</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="23"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="26"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="36"/>
       <c r="H109" s="3"/>
       <c r="I109" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="21" t="s">
+      <c r="A110" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="B110" s="34" t="s">
         <v>453</v>
       </c>
-      <c r="B110" s="24" t="s">
+      <c r="C110" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="E110" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="F110" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="G110" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="32"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C110" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="21" t="s">
-        <v>454</v>
-      </c>
-      <c r="E110" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="F110" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="G110" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H110" s="2" t="s">
+      <c r="I111" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="32"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="22"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="25"/>
-      <c r="H111" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="22"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="23"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="26"/>
+      <c r="A113" s="33"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="33"/>
+      <c r="G113" s="36"/>
       <c r="H113" s="3"/>
       <c r="I113" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="21" t="s">
+      <c r="A114" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="B114" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="C114" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="E114" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="F114" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="G114" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B114" s="24" t="s">
+      <c r="I114" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="32"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="35"/>
+      <c r="H115" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C114" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="E114" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="F114" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="G114" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H114" s="2" t="s">
+      <c r="I115" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="32"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="22"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="22"/>
-      <c r="B116" s="25"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="23"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="23"/>
-      <c r="F117" s="23"/>
-      <c r="G117" s="26"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="36"/>
       <c r="H117" s="3"/>
       <c r="I117" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="21" t="s">
+      <c r="A118" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="B118" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="C118" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="E118" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="F118" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="G118" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="H118" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B118" s="24" t="s">
+      <c r="I118" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="32"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="32"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="35"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="35"/>
+      <c r="H120" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="C118" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" s="21" t="s">
-        <v>467</v>
-      </c>
-      <c r="E118" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="F118" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="G118" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="22"/>
-      <c r="B119" s="25"/>
-      <c r="C119" s="25"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="25"/>
-      <c r="H119" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="22"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="25"/>
-      <c r="H120" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="23"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="23"/>
-      <c r="G121" s="26"/>
+      <c r="A121" s="33"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="36"/>
       <c r="H121" s="3"/>
       <c r="I121" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="21" t="s">
+      <c r="A122" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="B122" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="C122" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="E122" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="F122" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="G122" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="H122" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B122" s="24" t="s">
+      <c r="I122" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="32"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="35"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="35"/>
+      <c r="H123" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C122" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D122" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="E122" s="21" t="s">
-        <v>484</v>
-      </c>
-      <c r="F122" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="G122" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="22"/>
-      <c r="B123" s="25"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="25"/>
-      <c r="H123" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="I123" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="22"/>
-      <c r="B124" s="25"/>
-      <c r="C124" s="25"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="25"/>
+      <c r="A124" s="32"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="35"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="23"/>
-      <c r="B125" s="26"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="26"/>
+      <c r="A125" s="33"/>
+      <c r="B125" s="36"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="36"/>
       <c r="H125" s="3"/>
       <c r="I125" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="21" t="s">
+      <c r="A126" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="B126" s="34" t="s">
+        <v>486</v>
+      </c>
+      <c r="C126" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="31" t="s">
         <v>483</v>
       </c>
-      <c r="B126" s="24" t="s">
+      <c r="E126" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="F126" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="G126" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="32"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="35"/>
+      <c r="H127" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C126" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="E126" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="F126" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="G126" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="H126" s="2" t="s">
+      <c r="I127" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="32"/>
+      <c r="B128" s="35"/>
+      <c r="C128" s="35"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="35"/>
+      <c r="H128" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="22"/>
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="25"/>
-      <c r="H127" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="22"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="25"/>
-      <c r="H128" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="23"/>
-      <c r="B129" s="26"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
-      <c r="F129" s="23"/>
-      <c r="G129" s="26"/>
+      <c r="A129" s="33"/>
+      <c r="B129" s="36"/>
+      <c r="C129" s="36"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="33"/>
+      <c r="G129" s="36"/>
       <c r="H129" s="3"/>
       <c r="I129" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="21" t="s">
+      <c r="A130" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="B130" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="C130" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="E130" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="F130" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="G130" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B130" s="24" t="s">
+      <c r="I130" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="32"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="35"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="35"/>
+      <c r="H131" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C130" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D130" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="E130" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="F130" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="G130" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H130" s="2" t="s">
+      <c r="I131" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="32"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="35"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="32"/>
+      <c r="G132" s="35"/>
+      <c r="H132" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="I130" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="22"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="25"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="25"/>
-      <c r="H131" s="2" t="s">
+      <c r="I132" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="I131" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="22"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="25"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="25"/>
-      <c r="H132" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>498</v>
-      </c>
     </row>
     <row r="133" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="23"/>
-      <c r="B133" s="26"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="23"/>
-      <c r="F133" s="23"/>
-      <c r="G133" s="26"/>
+      <c r="A133" s="33"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="36"/>
       <c r="H133" s="3"/>
       <c r="I133" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="21" t="s">
+      <c r="A134" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="B134" s="34" t="s">
         <v>500</v>
       </c>
-      <c r="B134" s="24" t="s">
+      <c r="C134" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="E134" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="F134" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="G134" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="32"/>
+      <c r="B135" s="35"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="32"/>
+      <c r="G135" s="35"/>
+      <c r="H135" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C134" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D134" s="21" t="s">
-        <v>501</v>
-      </c>
-      <c r="E134" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="F134" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="G134" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H134" s="2" t="s">
+      <c r="I135" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="32"/>
+      <c r="B136" s="35"/>
+      <c r="C136" s="35"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="32"/>
+      <c r="G136" s="35"/>
+      <c r="H136" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="I134" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="22"/>
-      <c r="B135" s="25"/>
-      <c r="C135" s="25"/>
-      <c r="D135" s="22"/>
-      <c r="E135" s="22"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="25"/>
-      <c r="H135" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="22"/>
-      <c r="B136" s="25"/>
-      <c r="C136" s="25"/>
-      <c r="D136" s="22"/>
-      <c r="E136" s="22"/>
-      <c r="F136" s="22"/>
-      <c r="G136" s="25"/>
-      <c r="H136" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="I136" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="23"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="23"/>
-      <c r="F137" s="23"/>
-      <c r="G137" s="26"/>
+      <c r="A137" s="33"/>
+      <c r="B137" s="36"/>
+      <c r="C137" s="36"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="36"/>
       <c r="H137" s="3"/>
       <c r="I137" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="21" t="s">
+      <c r="A138" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="B138" s="34" t="s">
         <v>507</v>
       </c>
-      <c r="B138" s="24" t="s">
+      <c r="C138" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="E138" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="F138" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="G138" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="32"/>
+      <c r="B139" s="35"/>
+      <c r="C139" s="35"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="35"/>
+      <c r="H139" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C138" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D138" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="E138" s="21" t="s">
-        <v>513</v>
-      </c>
-      <c r="F138" s="21" t="s">
-        <v>513</v>
-      </c>
-      <c r="G138" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H138" s="2" t="s">
+      <c r="I139" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="32"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="35"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="32"/>
+      <c r="G140" s="35"/>
+      <c r="H140" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I138" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="22"/>
-      <c r="B139" s="25"/>
-      <c r="C139" s="25"/>
-      <c r="D139" s="22"/>
-      <c r="E139" s="22"/>
-      <c r="F139" s="22"/>
-      <c r="G139" s="25"/>
-      <c r="H139" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="22"/>
-      <c r="B140" s="25"/>
-      <c r="C140" s="25"/>
-      <c r="D140" s="22"/>
-      <c r="E140" s="22"/>
-      <c r="F140" s="22"/>
-      <c r="G140" s="25"/>
-      <c r="H140" s="2" t="s">
-        <v>512</v>
-      </c>
       <c r="I140" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="23"/>
-      <c r="B141" s="26"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="23"/>
-      <c r="E141" s="23"/>
-      <c r="F141" s="23"/>
-      <c r="G141" s="26"/>
+      <c r="A141" s="33"/>
+      <c r="B141" s="36"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="33"/>
+      <c r="F141" s="33"/>
+      <c r="G141" s="36"/>
       <c r="H141" s="3"/>
       <c r="I141" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="242">
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="G82:G85"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="G86:G89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="F90:F93"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F94:F97"/>
-    <mergeCell ref="G94:G97"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="F98:F101"/>
-    <mergeCell ref="G98:G101"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="F102:F105"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="F106:F109"/>
-    <mergeCell ref="G106:G109"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="F138:F141"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="F130:F133"/>
+    <mergeCell ref="G130:G133"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="F134:F137"/>
+    <mergeCell ref="G134:G137"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="F126:F129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="E122:E125"/>
     <mergeCell ref="F118:F121"/>
     <mergeCell ref="G118:G121"/>
     <mergeCell ref="A118:A121"/>
@@ -11528,41 +11380,192 @@
     <mergeCell ref="C110:C113"/>
     <mergeCell ref="D110:D113"/>
     <mergeCell ref="E110:E113"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="G122:G125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="F126:F129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="F138:F141"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="F130:F133"/>
-    <mergeCell ref="G130:G133"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="F134:F137"/>
-    <mergeCell ref="G134:G137"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="F102:F105"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="F106:F109"/>
+    <mergeCell ref="G106:G109"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="F94:F97"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="F98:F101"/>
+    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="G86:G89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="F90:F93"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="G82:G85"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12782,23 +12785,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7f5fa0cf-dc09-4e74-94b2-9e61dc6c5e22" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002AF23646DA66AF4B82452235A6B2FD83" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7f64b73dfd61bf3748699a9f5c5a417b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7f5fa0cf-dc09-4e74-94b2-9e61dc6c5e22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6537b1677875176f0c18b2eb75c3534e" ns3:_="">
     <xsd:import namespace="7f5fa0cf-dc09-4e74-94b2-9e61dc6c5e22"/>
@@ -12980,31 +12966,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CEDC7BA-AAAE-4614-8428-1CFCF21C9015}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7f5fa0cf-dc09-4e74-94b2-9e61dc6c5e22"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6ADA868-30A5-4F85-BF58-DCDD50380D88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7f5fa0cf-dc09-4e74-94b2-9e61dc6c5e22" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE67247B-4C2E-4EB7-AC63-6E372A43BB60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13022,6 +13001,30 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6ADA868-30A5-4F85-BF58-DCDD50380D88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CEDC7BA-AAAE-4614-8428-1CFCF21C9015}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7f5fa0cf-dc09-4e74-94b2-9e61dc6c5e22"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{1337832b-e06e-4e87-85f5-ecfde68f9c8e}" enabled="1" method="Standard" siteId="{44e3cf94-19c9-4e32-96c3-14f5bf01391a}" removed="0"/>
